--- a/xlsx/美国各州最大城市列表_intext.xlsx
+++ b/xlsx/美国各州最大城市列表_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="427">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="426">
   <si>
     <t>美国各州最大城市列表</t>
   </si>
@@ -29,7 +29,7 @@
     <t>亚拉巴马州</t>
   </si>
   <si>
-    <t>政策_政策_美國_美国各州最大城市列表</t>
+    <t>政策_政策_美国_美国各州最大城市列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%AF%E6%98%8E%E7%BF%B0_(%E4%BA%9A%E6%8B%89%E5%B7%B4%E9%A9%AC%E5%B7%9E)</t>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A2%85%E8%96%A9_(%E4%BA%9E%E5%88%A9%E6%A1%91%E9%82%A3%E5%B7%9E)</t>
   </si>
   <si>
-    <t>梅薩 (亞利桑那州)</t>
+    <t>梅萨 (亚利桑那州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E8%82%AF%E8%89%B2%E5%B7%9E</t>
@@ -293,7 +293,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%87%B1%E7%9B%A7%E9%98%BF_(%E6%AA%80%E9%A6%99%E5%B1%B1%E7%B8%A3)</t>
   </si>
   <si>
-    <t>凱盧阿 (檀香山縣)</t>
+    <t>凯卢阿 (檀香山县)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%88%B1%E8%BE%BE%E8%8D%B7%E5%B7%9E</t>
@@ -347,7 +347,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%B4%8D%E6%B3%A2%E5%88%A9%E6%96%AF</t>
   </si>
   <si>
-    <t>印第安納波利斯</t>
+    <t>印第安纳波利斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9F%A6%E6%81%A9%E5%A0%A1_(%E5%8D%B0%E7%AC%AC%E5%AE%89%E7%BA%B3%E5%B7%9E)</t>
@@ -407,7 +407,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A0%AA%E8%96%A9%E6%96%AF%E5%9F%8E_(%E5%A0%AA%E8%96%A9%E6%96%AF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>堪薩斯城 (堪薩斯州)</t>
+    <t>堪萨斯城 (堪萨斯州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E</t>
@@ -419,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B7%AF%E6%98%93%E7%B6%AD%E7%88%BE_(%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E)</t>
   </si>
   <si>
-    <t>路易維爾 (肯塔基州)</t>
+    <t>路易维尔 (肯塔基州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%97%E5%85%8B%E6%98%9F%E6%95%A6_(%E8%82%AF%E5%A1%94%E5%9F%BA%E5%B7%9E)</t>
@@ -749,7 +749,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%96%E5%A4%A7%E9%9D%9E</t>
   </si>
   <si>
-    <t>聖大非</t>
+    <t>圣大非</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%BD%E7%BA%A6%E5%B7%9E</t>
@@ -779,7 +779,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%8F%E6%B4%9B%E7%89%B9_(%E5%8C%97%E5%8D%A1%E7%BE%85%E4%BE%86%E7%B4%8D%E5%B7%9E)</t>
   </si>
   <si>
-    <t>夏洛特 (北卡羅來納州)</t>
+    <t>夏洛特 (北卡罗来纳州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E5%88%A9_(%E5%8C%97%E5%8D%A1%E7%BD%97%E6%9D%A5%E7%BA%B3%E5%B7%9E)</t>
@@ -809,13 +809,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BF%BE%E6%96%AF%E9%BA%A5_(%E5%8C%97%E9%81%94%E7%A7%91%E4%BB%96%E5%B7%9E)</t>
   </si>
   <si>
-    <t>俾斯麥 (北達科他州)</t>
+    <t>俾斯麦 (北达科他州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A7%E7%A6%8F%E5%85%8B%E6%96%AF_(%E5%8C%97%E9%81%94%E7%A7%91%E4%BB%96%E5%B7%9E)</t>
   </si>
   <si>
-    <t>大福克斯 (北達科他州)</t>
+    <t>大福克斯 (北达科他州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E4%BA%A5%E4%BF%84%E5%B7%9E</t>
@@ -983,7 +983,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%AD%9F%E8%8F%B2%E6%96%AF_(%E7%94%B0%E7%B4%8D%E8%A5%BF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>孟菲斯 (田納西州)</t>
+    <t>孟菲斯 (田纳西州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BA%B3%E4%BB%80%E7%BB%B4%E5%B0%94_(%E7%94%B0%E7%BA%B3%E8%A5%BF%E5%B7%9E)</t>
@@ -995,7 +995,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E5%85%8B%E6%96%AF%E7%B6%AD%E7%88%BE_(%E7%94%B0%E7%B4%8D%E8%A5%BF%E5%B7%9E)</t>
   </si>
   <si>
-    <t>諾克斯維爾 (田納西州)</t>
+    <t>诺克斯维尔 (田纳西州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%97%E5%85%8B%E8%90%A8%E6%96%AF%E5%B7%9E</t>
@@ -1073,13 +1073,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9E%E6%AF%94%E5%A5%87</t>
   </si>
   <si>
-    <t>弗吉尼亞比奇</t>
+    <t>弗吉尼亚比奇</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AB%BE%E7%A6%8F%E5%85%8B_(%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9E%E5%B7%9E)</t>
   </si>
   <si>
-    <t>諾福克 (弗吉尼亞州)</t>
+    <t>诺福克 (弗吉尼亚州)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%88%87%E8%90%A8%E7%9A%AE%E5%85%8B_(%E5%BC%97%E5%90%89%E5%B0%BC%E4%BA%9A%E5%B7%9E)</t>
@@ -1193,25 +1193,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD</t>
   </si>
   <si>
-    <t>美國州份</t>
+    <t>美国州份</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD%E5%92%8C%E9%A0%98%E5%9C%B0%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國州份和領地列表</t>
+    <t>美国州份和领地列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BE%9D%E7%B8%BD%E9%9D%A2%E7%A9%8D%E6%8E%92%E5%88%97%E7%9A%84%E7%BE%8E%E5%9C%8B%E5%B7%9E%E5%88%A5%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>依總面積排列的美國州別列表</t>
+    <t>依总面积排列的美国州别列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E9%A6%96%E5%BA%9C%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州首府列表</t>
+    <t>美国各州首府列表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/List_of_governors%27_residences_in_the_United_States</t>
@@ -1223,25 +1223,22 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E5%B7%9E%E8%AD%B0%E6%9C%83%E5%A4%A7%E5%BB%88%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州州議會大廈列表</t>
+    <t>美国各州州议会大厦列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD%E4%BE%9D%E5%8A%A0%E5%85%A5%E8%81%AF%E9%82%A6%E9%A0%86%E5%BA%8F%E6%8E%92%E5%88%97%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國州份依加入聯邦順序排列列表</t>
+    <t>美国州份依加入联邦顺序排列列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E6%9C%80%E5%A4%A7%E5%9F%8E%E5%B8%82%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州最大城市列表</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E5%90%8D%E7%A8%B1%E8%A9%9E%E6%BA%90</t>
   </si>
   <si>
-    <t>美國各州名稱詞源</t>
+    <t>美国各州名称词源</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E5%9B%BD%E5%86%85%E7%94%9F%E4%BA%A7%E6%80%BB%E5%80%BC%E5%88%97%E8%A1%A8</t>
@@ -1253,37 +1250,37 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E4%BA%BA%E5%9D%87%E7%94%9F%E7%94%A2%E7%B8%BD%E9%A1%8D%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州人均生產總額列表</t>
+    <t>美国各州人均生产总额列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E4%BA%BA%E5%8F%A3%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州人口列表</t>
+    <t>美国各州人口列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD%E4%BA%BA%E5%8F%A3%E5%AF%86%E5%BA%A6%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國州份人口密度列表</t>
+    <t>美国州份人口密度列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%B7%9E%E4%BB%BD%E9%83%B5%E6%94%BF%E7%B8%AE%E5%AF%AB%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國州份郵政縮寫列表</t>
+    <t>美国州份邮政缩写列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E6%99%82%E5%8D%80%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州時區列表</t>
+    <t>美国各州时区列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E5%90%84%E5%B7%9E%E7%B8%AE%E5%AF%AB%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>美國各州縮寫列表</t>
+    <t>美国各州缩写列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%90%84%E5%B7%9E%E6%98%B5%E7%A7%B0%E5%88%97%E8%A1%A8</t>
@@ -7524,7 +7521,7 @@
         <v>405</v>
       </c>
       <c r="F203" t="s">
-        <v>406</v>
+        <v>0</v>
       </c>
       <c r="G203" t="n">
         <v>8</v>
@@ -7550,10 +7547,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
+        <v>406</v>
+      </c>
+      <c r="F204" t="s">
         <v>407</v>
-      </c>
-      <c r="F204" t="s">
-        <v>408</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -7579,10 +7576,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
+        <v>408</v>
+      </c>
+      <c r="F205" t="s">
         <v>409</v>
-      </c>
-      <c r="F205" t="s">
-        <v>410</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -7608,10 +7605,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
+        <v>410</v>
+      </c>
+      <c r="F206" t="s">
         <v>411</v>
-      </c>
-      <c r="F206" t="s">
-        <v>412</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -7637,10 +7634,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
+        <v>412</v>
+      </c>
+      <c r="F207" t="s">
         <v>413</v>
-      </c>
-      <c r="F207" t="s">
-        <v>414</v>
       </c>
       <c r="G207" t="n">
         <v>3</v>
@@ -7666,10 +7663,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
+        <v>414</v>
+      </c>
+      <c r="F208" t="s">
         <v>415</v>
-      </c>
-      <c r="F208" t="s">
-        <v>416</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -7695,10 +7692,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
+        <v>416</v>
+      </c>
+      <c r="F209" t="s">
         <v>417</v>
-      </c>
-      <c r="F209" t="s">
-        <v>418</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -7724,10 +7721,10 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
+        <v>418</v>
+      </c>
+      <c r="F210" t="s">
         <v>419</v>
-      </c>
-      <c r="F210" t="s">
-        <v>420</v>
       </c>
       <c r="G210" t="n">
         <v>1</v>
@@ -7753,10 +7750,10 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
+        <v>420</v>
+      </c>
+      <c r="F211" t="s">
         <v>421</v>
-      </c>
-      <c r="F211" t="s">
-        <v>422</v>
       </c>
       <c r="G211" t="n">
         <v>2</v>
@@ -7782,10 +7779,10 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
+        <v>422</v>
+      </c>
+      <c r="F212" t="s">
         <v>423</v>
-      </c>
-      <c r="F212" t="s">
-        <v>424</v>
       </c>
       <c r="G212" t="n">
         <v>1</v>
@@ -7811,10 +7808,10 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
+        <v>424</v>
+      </c>
+      <c r="F213" t="s">
         <v>425</v>
-      </c>
-      <c r="F213" t="s">
-        <v>426</v>
       </c>
       <c r="G213" t="n">
         <v>1</v>
